--- a/tests/test_files/simple_1.xlsx
+++ b/tests/test_files/simple_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7BDADF-9FAD-B54F-9559-A047189CF997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A38C59-35B3-2242-AD6B-877BD8BB5D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52140" yWindow="4360" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -20,15 +20,16 @@
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
     <sheet name="studyDesignActivities" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId8"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId9"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId10"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId11"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId12"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId13"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId14"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId15"/>
-    <sheet name="configuration" sheetId="10" r:id="rId16"/>
+    <sheet name="studyDesignInterventions" sheetId="18" r:id="rId8"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId16"/>
+    <sheet name="configuration" sheetId="10" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="614">
   <si>
     <t>Epoch</t>
   </si>
@@ -233,79 +234,31 @@
     <t>type</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>codes</t>
   </si>
   <si>
-    <t>An indication</t>
-  </si>
-  <si>
     <t>SNOMED:12345=Indication1</t>
   </si>
   <si>
-    <t>An intervention</t>
-  </si>
-  <si>
-    <t>ICD-10: X = Y, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>SNOMED:345678=Indication2</t>
   </si>
   <si>
-    <t>ICD-10: DD=CC, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>populationDescription</t>
   </si>
   <si>
-    <t>Pop 1</t>
-  </si>
-  <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>18 years</t>
   </si>
   <si>
-    <t>40 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>Pop 2</t>
-  </si>
-  <si>
-    <t>60 years</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Pop 3</t>
-  </si>
-  <si>
     <t>70 years</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>plannedMaximumAgeOfParticipants</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1805,12 +1758,177 @@
   <si>
     <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>POP1</t>
+  </si>
+  <si>
+    <t>COHORT1</t>
+  </si>
+  <si>
+    <t>COHORT2</t>
+  </si>
+  <si>
+    <t>30 years</t>
+  </si>
+  <si>
+    <t>31 years</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1854,6 +1972,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1887,7 +2011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1957,6 +2081,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2300,10 +2426,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2340,63 +2466,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2404,79 +2530,79 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="C17" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="D17" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="E17" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="C18" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="D18" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="E18" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -2485,6 +2611,105 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B4" t="s">
+        <v>611</v>
+      </c>
+      <c r="G4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -2508,85 +2733,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2595,16 +2820,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2613,16 +2838,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2631,16 +2856,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2649,16 +2874,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2667,16 +2892,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2685,16 +2910,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2703,16 +2928,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2721,16 +2946,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2739,16 +2964,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2757,16 +2982,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3051,7 +3276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -3071,90 +3296,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3162,7 +3387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3183,65 +3408,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3254,7 +3479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3274,137 +3499,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3413,7 +3638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3431,104 +3656,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3537,7 +3762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D138"/>
   <sheetViews>
@@ -3555,16 +3780,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3573,1212 +3798,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -4787,7 +5012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4802,18 +5027,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4825,9 +5050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4869,13 +5092,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4889,13 +5112,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -4920,115 +5143,115 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+        <v>231</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+        <v>232</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="B6" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="B7" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="B8" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+        <v>157</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+        <v>158</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5048,16 +5271,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5065,16 +5288,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5125,19 +5348,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5145,16 +5368,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5165,13 +5388,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5199,13 +5422,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5213,10 +5436,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5224,10 +5447,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5235,10 +5458,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5246,10 +5469,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -5279,10 +5502,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5293,20 +5516,20 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5329,10 +5552,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5423,29 +5646,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5466,7 +5689,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5549,16 +5772,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5566,7 +5789,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5574,13 +5797,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5593,87 +5816,212 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314544EC-CFDD-BE45-9268-B6B9DDA66384}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>577</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+      <c r="D2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="G2" t="s">
+        <v>582</v>
+      </c>
+      <c r="H2" t="s">
+        <v>583</v>
+      </c>
+      <c r="I2" t="s">
+        <v>584</v>
+      </c>
+      <c r="J2" t="s">
+        <v>585</v>
+      </c>
+      <c r="K2" t="s">
+        <v>586</v>
+      </c>
+      <c r="L2" t="s">
+        <v>587</v>
+      </c>
+      <c r="M2" t="s">
+        <v>588</v>
+      </c>
+      <c r="N2" t="s">
+        <v>589</v>
+      </c>
+      <c r="O2" t="s">
+        <v>590</v>
+      </c>
+      <c r="P2" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" t="s">
+        <v>592</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>594</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>595</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
+        <v>579</v>
+      </c>
+      <c r="E3" t="s">
+        <v>596</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="G3" t="s">
+        <v>582</v>
+      </c>
+      <c r="H3" t="s">
+        <v>597</v>
+      </c>
+      <c r="I3" t="s">
+        <v>584</v>
+      </c>
+      <c r="J3" t="s">
+        <v>598</v>
+      </c>
+      <c r="K3" t="s">
+        <v>599</v>
+      </c>
+      <c r="L3" t="s">
+        <v>600</v>
+      </c>
+      <c r="M3" t="s">
+        <v>588</v>
+      </c>
+      <c r="N3" t="s">
+        <v>589</v>
+      </c>
+      <c r="O3" t="s">
+        <v>590</v>
+      </c>
+      <c r="P3" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" t="s">
+        <v>592</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -5682,90 +6030,60 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>559</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>560</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>561</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>562</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
